--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>581683.2470024651</v>
+        <v>530742.8579345818</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12535336.02914634</v>
+        <v>12462791.62801786</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7622616.185043053</v>
+        <v>6927973.460166839</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8997248.300753195</v>
+        <v>9341851.060518837</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C2" t="n">
-        <v>6.396723986041593</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>211.2228407230372</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>150.4760324962417</v>
       </c>
       <c r="D3" t="n">
-        <v>51.21178417960201</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.948228754746022</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>101.4836108159815</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>57.08569488870556</v>
+        <v>79.51149230610422</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>94.21128653627399</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.52558716632</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>83.39636417672372</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>148.5289697286603</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>26.14297502545531</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.52558716632</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>118.9836570830976</v>
       </c>
       <c r="E8" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>187.52558716632</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.52558716632</v>
+        <v>162.3056641808066</v>
       </c>
       <c r="U9" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>127.2378420788161</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>11.16209871159174</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>187.52558716632</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>187.52558716632</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>165.1725371760947</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>7.063910705648666</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292584</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>235.1550917323884</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734125409</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>18.26879610204007</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>61.42978662487989</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>92.47445699814486</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>240.2451530332455</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>114.1627038799791</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,19 +1852,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>173.2989701645123</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>295.4261305984813</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>78.14223821376341</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>10.20389322926706</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57.29212650174304</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>278.4747886798693</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4281572700698</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>135.2594250626535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1195677819311</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>58.92805047992118</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.236131590065</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>282.3935320802019</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>164.0595157960429</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>152.0684032264859</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>36.15999212057531</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>350.9274692014538</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>74.98619773129403</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>74.75769145492396</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>93.91244618182746</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>168.1158122680976</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>110.968278884698</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>85.97636447956948</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>227.7359967734942</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>163.6898441249714</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>80.7160676450474</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25.73684954641136</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>197.2040098788587</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.6898441249714</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>59.90320919298873</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>195.7072339319593</v>
       </c>
       <c r="F41" t="n">
-        <v>259.2972958106193</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>25.01141625626332</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>69.16121449564869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>186.6141597285364</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>373.5948378187484</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414546</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>65.36690640948963</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486472</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.46338433294358</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="D2" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E2" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678499</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058954</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>262.3106962605492</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>449.0101090859565</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123831</v>
+        <v>643.3443219779385</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>813.5133472948976</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>924.2476725444236</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652801</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652801</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823982</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659134</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="U2" t="n">
-        <v>210.8831693494285</v>
+        <v>745.8753877952738</v>
       </c>
       <c r="V2" t="n">
-        <v>210.8831693494285</v>
+        <v>745.8753877952738</v>
       </c>
       <c r="W2" t="n">
-        <v>210.8831693494285</v>
+        <v>503.6451371472893</v>
       </c>
       <c r="X2" t="n">
-        <v>210.8831693494285</v>
+        <v>261.4148864993049</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.46338433294358</v>
+        <v>261.4148864993049</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241.1841511833235</v>
+        <v>171.1806282717666</v>
       </c>
       <c r="C3" t="n">
-        <v>66.73112190219652</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024218</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017065</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652801</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652801</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198764</v>
+        <v>809.7650034286532</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198764</v>
+        <v>809.7650034286532</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198764</v>
+        <v>581.6262159398191</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198764</v>
+        <v>581.6262159398191</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198764</v>
+        <v>339.3959652918346</v>
       </c>
       <c r="X3" t="n">
-        <v>598.8192732198764</v>
+        <v>339.3959652918346</v>
       </c>
       <c r="Y3" t="n">
-        <v>409.3994882033916</v>
+        <v>339.3959652918346</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>423.1417032603749</v>
+        <v>21.15254368439716</v>
       </c>
       <c r="C4" t="n">
-        <v>423.1417032603749</v>
+        <v>21.15254368439716</v>
       </c>
       <c r="D4" t="n">
-        <v>423.1417032603749</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E4" t="n">
-        <v>423.1417032603749</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F4" t="n">
-        <v>423.1417032603749</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G4" t="n">
-        <v>320.6330054664542</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818522</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745585</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>295.5529562639639</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242522</v>
+        <v>656.2710011584443</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608024</v>
+        <v>830.3658965470431</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652801</v>
+        <v>955.8134731456587</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846279</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768598</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="S4" t="n">
-        <v>423.1417032603749</v>
+        <v>959.2317925660185</v>
       </c>
       <c r="T4" t="n">
-        <v>423.1417032603749</v>
+        <v>733.6025958783835</v>
       </c>
       <c r="U4" t="n">
-        <v>423.1417032603749</v>
+        <v>491.372345230399</v>
       </c>
       <c r="V4" t="n">
-        <v>423.1417032603749</v>
+        <v>491.372345230399</v>
       </c>
       <c r="W4" t="n">
-        <v>423.1417032603749</v>
+        <v>249.1420945824145</v>
       </c>
       <c r="X4" t="n">
-        <v>423.1417032603749</v>
+        <v>21.15254368439716</v>
       </c>
       <c r="Y4" t="n">
-        <v>423.1417032603749</v>
+        <v>21.15254368439716</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7407511348962</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="C5" t="n">
-        <v>141.7407511348962</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="D5" t="n">
-        <v>141.7407511348962</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="E5" t="n">
-        <v>141.7407511348962</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F5" t="n">
-        <v>141.7407511348962</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>141.7407511348962</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>141.7407511348962</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058939</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079184</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644755</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985586</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020269</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.10234866528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>738.6222485201474</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>578.2426392372655</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>388.8228542207806</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>199.4030692042958</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>141.7407511348962</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="W5" t="n">
-        <v>141.7407511348962</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="X5" t="n">
-        <v>141.7407511348962</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.7407511348962</v>
+        <v>820.2300801016544</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>276.0998629391042</v>
+        <v>326.869123378691</v>
       </c>
       <c r="C6" t="n">
-        <v>276.0998629391042</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D6" t="n">
-        <v>276.0998629391042</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>116.8624079336487</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>116.8624079336487</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>116.8624079336487</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140245</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476352</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017066</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.10234866528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>750.10234866528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>654.939432972074</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>465.5196479555891</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>276.0998629391042</v>
+        <v>826.7196740428381</v>
       </c>
       <c r="V6" t="n">
-        <v>276.0998629391042</v>
+        <v>742.4809223491777</v>
       </c>
       <c r="W6" t="n">
-        <v>276.0998629391042</v>
+        <v>742.4809223491777</v>
       </c>
       <c r="X6" t="n">
-        <v>276.0998629391042</v>
+        <v>534.6294221436449</v>
       </c>
       <c r="Y6" t="n">
-        <v>276.0998629391042</v>
+        <v>326.869123378691</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>379.0340988185554</v>
+        <v>189.666471045117</v>
       </c>
       <c r="C7" t="n">
-        <v>210.0979158906485</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D7" t="n">
-        <v>210.0979158906485</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E7" t="n">
-        <v>210.0979158906485</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F7" t="n">
-        <v>183.6908704103906</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>187.8896250884407</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>373.5399563830975</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>471.6341805242521</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>634.3723839608023</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
-        <v>750.10234866528</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>750.10234866528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>750.10234866528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>750.10234866528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>750.10234866528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>750.10234866528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>750.10234866528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>750.10234866528</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X7" t="n">
-        <v>750.10234866528</v>
+        <v>560.4883125408293</v>
       </c>
       <c r="Y7" t="n">
-        <v>560.6825636487952</v>
+        <v>339.6957333972991</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.6825636487953</v>
+        <v>470.9555216282756</v>
       </c>
       <c r="C8" t="n">
-        <v>560.6825636487953</v>
+        <v>470.9555216282756</v>
       </c>
       <c r="D8" t="n">
-        <v>560.6825636487953</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="E8" t="n">
-        <v>393.8416170062754</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897905</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0020469733056</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678498</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058953</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079186</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644757</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123831</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985586</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>734.461172602027</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652801</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652801</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652801</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652801</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652801</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652801</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W8" t="n">
-        <v>560.6825636487953</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="X8" t="n">
-        <v>560.6825636487953</v>
+        <v>857.5553616923974</v>
       </c>
       <c r="Y8" t="n">
-        <v>560.6825636487953</v>
+        <v>857.5553616923974</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>64.27357399906981</v>
+        <v>931.2981106200058</v>
       </c>
       <c r="C9" t="n">
-        <v>64.27357399906981</v>
+        <v>756.8450813388788</v>
       </c>
       <c r="D9" t="n">
-        <v>64.27357399906981</v>
+        <v>607.9106716776275</v>
       </c>
       <c r="E9" t="n">
-        <v>64.27357399906981</v>
+        <v>448.6732166721721</v>
       </c>
       <c r="F9" t="n">
-        <v>64.27357399906981</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G9" t="n">
-        <v>64.27357399906981</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H9" t="n">
-        <v>64.27357399906981</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I9" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330587</v>
+        <v>212.6436730778755</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024245</v>
+        <v>369.7349398227043</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772653</v>
+        <v>906.4287469816059</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140248</v>
+        <v>1226.335642450115</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546606</v>
+        <v>1569.118166444747</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476353</v>
+        <v>1860.477412699312</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017067</v>
+        <v>2074.985828260213</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652801</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843282</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S9" t="n">
-        <v>571.6362168389245</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T9" t="n">
-        <v>382.2164318224396</v>
+        <v>2004.514711570505</v>
       </c>
       <c r="U9" t="n">
-        <v>192.7966468059547</v>
+        <v>2004.514711570505</v>
       </c>
       <c r="V9" t="n">
-        <v>64.27357399906981</v>
+        <v>1769.362603338762</v>
       </c>
       <c r="W9" t="n">
-        <v>64.27357399906981</v>
+        <v>1515.12524661056</v>
       </c>
       <c r="X9" t="n">
-        <v>64.27357399906981</v>
+        <v>1307.273746405028</v>
       </c>
       <c r="Y9" t="n">
-        <v>64.27357399906981</v>
+        <v>1099.513447640074</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.0020469733056</v>
+        <v>201.5339912194294</v>
       </c>
       <c r="C10" t="n">
-        <v>15.0020469733056</v>
+        <v>201.5339912194294</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0020469733056</v>
+        <v>201.5339912194294</v>
       </c>
       <c r="E10" t="n">
-        <v>15.0020469733056</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>15.0020469733056</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>15.0020469733056</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K10" t="n">
-        <v>15.0020469733056</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L10" t="n">
-        <v>187.8896250884407</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M10" t="n">
-        <v>373.5399563830975</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242522</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608024</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652801</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q10" t="n">
-        <v>750.1023486652801</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>750.1023486652801</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S10" t="n">
-        <v>560.6825636487953</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T10" t="n">
-        <v>371.2627786323104</v>
+        <v>1262.751521386271</v>
       </c>
       <c r="U10" t="n">
-        <v>181.8429936158255</v>
+        <v>973.6252003602942</v>
       </c>
       <c r="V10" t="n">
-        <v>15.0020469733056</v>
+        <v>718.9407121544074</v>
       </c>
       <c r="W10" t="n">
-        <v>15.0020469733056</v>
+        <v>429.5235421174468</v>
       </c>
       <c r="X10" t="n">
-        <v>15.0020469733056</v>
+        <v>201.5339912194294</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.0020469733056</v>
+        <v>201.5339912194294</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1583.077587705311</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839473</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927146</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912091</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.075425919891</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.306770649777</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X11" t="n">
-        <v>2735.306770649777</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y11" t="n">
-        <v>2345.167438673965</v>
+        <v>1952.040104645722</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158139</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>945.3964936596652</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C13" t="n">
-        <v>776.4603107317583</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D13" t="n">
-        <v>626.3436713194226</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E13" t="n">
-        <v>478.4305777370295</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F13" t="n">
-        <v>331.5406302391191</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.338775876041</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088494</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088494</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088494</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1865.244258568413</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1575.827088531452</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>1347.837537633435</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>1127.044958489905</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5299,31 +5299,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136267</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136267</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136267</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>3215.315153136267</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>496.4207630604043</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>349.5308155624939</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>181.8279789372129</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5466,22 +5466,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1308.370295943748</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C17" t="n">
-        <v>939.4077790033366</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D17" t="n">
-        <v>581.1420803965862</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
-        <v>406.0926155839475</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2379.864285249158</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2006.398526988078</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5661,16 +5661,16 @@
         <v>213.4020639300938</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5712,10 +5712,10 @@
         <v>1161.740577577775</v>
       </c>
       <c r="W19" t="n">
-        <v>1161.740577577775</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.809023826499</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y19" t="n">
         <v>862.0164446829692</v>
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>758.7856865549923</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2755.806928794325</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2403.038273524211</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X20" t="n">
-        <v>2403.038273524211</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y20" t="n">
-        <v>2403.038273524211</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2489.924953962486</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C22" t="n">
-        <v>2320.988771034579</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>2170.872131622243</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.95903803985</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>1876.06909054194</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>1707.670146805594</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>1418.567279931238</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>1418.567279931238</v>
       </c>
       <c r="W22" t="n">
-        <v>3036.188651572211</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X22" t="n">
-        <v>2808.199100674194</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y22" t="n">
-        <v>2671.573418792726</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1969.42314369238</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1600.460626751969</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1242.194928145218</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>856.4066755469739</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>445.4207707573664</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3119.628073993394</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="V23" t="n">
-        <v>3119.628073993394</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W23" t="n">
-        <v>3119.628073993394</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X23" t="n">
-        <v>2746.162315732314</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y23" t="n">
-        <v>2356.022983756502</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>732.1533772316425</v>
+        <v>182.143086683856</v>
       </c>
       <c r="C25" t="n">
-        <v>732.1533772316425</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D25" t="n">
-        <v>582.0367378193067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E25" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6177,22 +6177,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U25" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V25" t="n">
-        <v>1424.011591242373</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W25" t="n">
-        <v>1134.594421205412</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X25" t="n">
-        <v>1134.594421205412</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y25" t="n">
-        <v>913.8018420618822</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1678.62132134232</v>
+        <v>1921.870414581993</v>
       </c>
       <c r="C26" t="n">
-        <v>1678.62132134232</v>
+        <v>1921.870414581993</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>1563.604715975243</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>1177.816463376998</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>766.8305585873909</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>351.7581084323874</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
@@ -6259,19 +6259,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3159.889138986905</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2828.826251643334</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W26" t="n">
-        <v>2828.826251643334</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X26" t="n">
-        <v>2455.360493382254</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y26" t="n">
-        <v>2065.221161406442</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>463.6594280995014</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C28" t="n">
-        <v>463.6594280995014</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>463.6594280995014</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>463.6594280995014</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>463.6594280995014</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
         <v>66.5121164321834</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1890.769303522255</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.191681214136</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V28" t="n">
-        <v>1383.507193008249</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W28" t="n">
-        <v>1094.090022971289</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X28" t="n">
-        <v>866.1004720732712</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y28" t="n">
-        <v>645.3078929297411</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1712.341567565139</v>
+        <v>1590.807527238422</v>
       </c>
       <c r="C29" t="n">
-        <v>1343.379050624727</v>
+        <v>1221.845010298011</v>
       </c>
       <c r="D29" t="n">
-        <v>985.1133520179767</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E29" t="n">
-        <v>599.3250994197324</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136266</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W29" t="n">
-        <v>2862.546497866152</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.080739605072</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y29" t="n">
-        <v>2098.941407629261</v>
+        <v>1977.407367302544</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1540.3362096043</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C31" t="n">
-        <v>1540.3362096043</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>1540.3362096043</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>1540.3362096043</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>1540.3362096043</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>1540.3362096043</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>3044.089480193526</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>2822.322864763052</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>2533.219997888695</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>2278.535509682808</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>1989.118339645848</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>1761.12878874783</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1540.3362096043</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2005.586939522201</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>572.3590779711117</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>161.3731731815041</v>
       </c>
       <c r="G32" t="n">
         <v>66.51211643218343</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X32" t="n">
-        <v>2782.326111562134</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y32" t="n">
-        <v>2392.186779586323</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.51211643218343</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C34" t="n">
-        <v>66.51211643218343</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218343</v>
+        <v>494.2172172304616</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218343</v>
+        <v>346.3041236480685</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218343</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y34" t="n">
-        <v>142.0249360836216</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.569348694473</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.606831754061</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D35" t="n">
-        <v>892.5704713767946</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734407</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.169188758595</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1630.166666846773</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="C37" t="n">
-        <v>1464.823389952862</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D37" t="n">
-        <v>1464.823389952862</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E37" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F37" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3133.919937435998</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>2912.153322005524</v>
+        <v>1845.763166628849</v>
       </c>
       <c r="U37" t="n">
-        <v>2623.050455131167</v>
+        <v>1556.660299754492</v>
       </c>
       <c r="V37" t="n">
-        <v>2368.365966925281</v>
+        <v>1301.975811548605</v>
       </c>
       <c r="W37" t="n">
-        <v>2078.94879688832</v>
+        <v>1012.558641511645</v>
       </c>
       <c r="X37" t="n">
-        <v>1850.959245990303</v>
+        <v>784.5690906136274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1630.166666846773</v>
+        <v>563.7765114700973</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2303.170539913434</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C38" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810557</v>
@@ -7207,19 +7207,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2719.306689612893</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X38" t="n">
-        <v>2719.306689612893</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y38" t="n">
-        <v>2329.167357637082</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1464.823389952862</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.823389952862</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3133.919937435998</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>2912.153322005524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>2623.050455131167</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>2368.365966925281</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>2078.94879688832</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X40" t="n">
-        <v>1850.959245990303</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y40" t="n">
-        <v>1630.166666846773</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2196.097994299124</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C41" t="n">
-        <v>1827.135477358713</v>
+        <v>1132.251444816073</v>
       </c>
       <c r="D41" t="n">
-        <v>1468.869778751962</v>
+        <v>1132.251444816073</v>
       </c>
       <c r="E41" t="n">
-        <v>1083.081526153718</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839474</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060172</v>
@@ -7432,31 +7432,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609172</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609172</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339058</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X41" t="n">
-        <v>2972.837166339058</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y41" t="n">
-        <v>2582.697834363246</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
         <v>1685.951113992583</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0708164780106</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>91.77617325669183</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>91.77617325669183</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1548.361223971665</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1548.361223971665</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>1478.501411349798</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.51186045178</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.71928130825</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2175.40089130816</v>
+        <v>1250.80968089488</v>
       </c>
       <c r="C44" t="n">
-        <v>1806.438374367749</v>
+        <v>881.8471639544687</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218348</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609174</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609174</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609174</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609174</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609174</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W44" t="n">
-        <v>3325.605821609174</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X44" t="n">
-        <v>2952.140063348094</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y44" t="n">
-        <v>2562.000731372282</v>
+        <v>1637.409520959002</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218348</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215812</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2088.986216231256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>2088.986216231256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>2088.986216231256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.959038039852</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>1876.069090541942</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>1708.366253916661</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134519</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.823389952864</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.9460223998</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348676</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797172</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396721</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102586</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022999</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456659</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609174</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609174</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609174</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T46" t="n">
-        <v>3103.8392061787</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U46" t="n">
-        <v>2814.736339304343</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>2560.051851098457</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>2270.634681061496</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>2270.634681061496</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>2270.634681061496</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923499</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8145,10 +8145,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>154.1946371899314</v>
+        <v>111.3252676074456</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265838</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,16 +8376,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>14.1043098940285</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457085</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>75.41988959484686</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265838</v>
+        <v>124.3334423962145</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>281.9622945443575</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,16 +8613,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>14.1043098940285</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457085</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>75.41988959484692</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-2.805783383408311e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>142.925893521976</v>
       </c>
       <c r="C2" t="n">
-        <v>358.876167784966</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988674</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871029</v>
+        <v>39.93194549926341</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>109.4330205759084</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>129.9231525369644</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22628,10 +22628,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>22.232466492074</v>
       </c>
       <c r="D3" t="n">
-        <v>96.23328138503675</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941498</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098432</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>146.6672442634663</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>65.51832438673263</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917619</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>46.45270651659237</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>46.71505019508638</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,13 +22837,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988677</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>63.64367339871032</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>270.6665635814293</v>
+        <v>248.2407661640307</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22874,16 +22874,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550657</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714237</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>55.55895815467564</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681213</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377092</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>149.4042229727015</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>31.30301045327704</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22953,19 +22953,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>119.2780729974759</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553082</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.05906618577478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>235.6993845375853</v>
       </c>
       <c r="E8" t="n">
-        <v>216.7578328961671</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753914</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.572246063738</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>161.715381551093</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681185</v>
+        <v>30.45755412995715</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377089</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>105.5627450706092</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>135.2718639349774</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>19.25466862917619</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>36.19408632378006</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>98.73949432713025</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>86.96510614773328</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>347.6191309150343</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>92.59716673774648</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>147.7570121569881</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>190.7078566989481</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>277.2566436803241</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>145.992785622808</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>30.59231103434163</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>208.6313999077495</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>53.81483811893173</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>147.5674171752738</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>208.3807601228277</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>325.4417151617375</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>76.20825294081368</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>2.120792006099379</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>83.32522828944133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>35.80215787152235</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>192.0671214789808</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>52.77216054947203</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>43.19783105650421</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>12.21423230711855</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>86.93565616285906</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>13.95740503254231</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>52.77216054947202</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3.755572419229168</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>331.8898480104174</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24855,7 +24855,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>69.99732345939682</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>317.009279471626</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>181.1251564493154</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>34.45276913823324</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>296.7574771839111</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>126.9470448471888</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>3.55697697365639</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.8328816311218</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>356.9969921170692</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>168.0688818921489</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696585</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>88.71226382522363</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>186.2231361403024</v>
       </c>
       <c r="F41" t="n">
-        <v>147.5787499310921</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>120.4096317666679</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>217.3617838409423</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>168.0688818921466</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>12.64310083730521</v>
       </c>
     </row>
     <row r="45">
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>81.06705623707954</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>16.14213605696568</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>471997.7018764839</v>
+        <v>515979.6641158587</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>471997.7018764837</v>
+        <v>535324.6760033172</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>471997.7018764838</v>
+        <v>731289.103388987</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879911.6497810577</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879911.6497810577</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879911.6497810577</v>
+        <v>879911.6497810576</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879911.6497810577</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879911.6497810574</v>
+        <v>879911.6497810573</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879911.6497810575</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810577</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879911.6497810575</v>
+        <v>879911.6497810576</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879911.6497810577</v>
+        <v>879911.6497810576</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879911.6497810578</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171419.5356187815</v>
+        <v>186902.5922223889</v>
       </c>
       <c r="C2" t="n">
-        <v>171419.5356187814</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="D2" t="n">
-        <v>171419.5356187816</v>
+        <v>265569.8802231799</v>
       </c>
       <c r="E2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="F2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="G2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="H2" t="n">
         <v>323947.2440223745</v>
       </c>
       <c r="I2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="J2" t="n">
         <v>323947.2440223744</v>
@@ -26343,19 +26343,19 @@
         <v>323947.2440223744</v>
       </c>
       <c r="L2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="M2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="N2" t="n">
         <v>323947.2440223745</v>
       </c>
-      <c r="M2" t="n">
-        <v>323947.2440223744</v>
-      </c>
-      <c r="N2" t="n">
-        <v>323947.2440223744</v>
-      </c>
       <c r="O2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223747</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26462.50553395217</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>291724.1809599824</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336682</v>
+        <v>276030.74576691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>62744.31078353579</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6152.62187094487</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>70460.80690932026</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>72091.35261608605</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12034.19304942663</v>
+        <v>14501.70850239081</v>
       </c>
       <c r="C4" t="n">
-        <v>12034.19304942663</v>
+        <v>15438.57384129046</v>
       </c>
       <c r="D4" t="n">
-        <v>12034.19304942663</v>
+        <v>18888.92742949787</v>
       </c>
       <c r="E4" t="n">
-        <v>10990.29103211604</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="F4" t="n">
         <v>10990.29103211609</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>61145.70223437329</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161358</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161359</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26496,22 +26496,22 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139333</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139336</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-488957.3603631041</v>
+        <v>-551680.3287030507</v>
       </c>
       <c r="C6" t="n">
-        <v>102399.5421577412</v>
+        <v>78491.65437099646</v>
       </c>
       <c r="D6" t="n">
-        <v>102399.5421577414</v>
+        <v>-136790.9921517702</v>
       </c>
       <c r="E6" t="n">
-        <v>-388484.0312048029</v>
+        <v>-40856.32263610595</v>
       </c>
       <c r="F6" t="n">
-        <v>238650.6124288657</v>
+        <v>235174.4231308039</v>
       </c>
       <c r="G6" t="n">
-        <v>238650.6124288652</v>
+        <v>235174.4231308039</v>
       </c>
       <c r="H6" t="n">
-        <v>238650.6124288651</v>
+        <v>235174.4231308041</v>
       </c>
       <c r="I6" t="n">
-        <v>238650.6124288651</v>
+        <v>235174.4231308041</v>
       </c>
       <c r="J6" t="n">
-        <v>189585.6677003204</v>
+        <v>172430.1123472682</v>
       </c>
       <c r="K6" t="n">
-        <v>238650.612428865</v>
+        <v>229021.8012598591</v>
       </c>
       <c r="L6" t="n">
-        <v>238650.6124288651</v>
+        <v>164713.6162214837</v>
       </c>
       <c r="M6" t="n">
-        <v>78194.17056098761</v>
+        <v>163083.0705147179</v>
       </c>
       <c r="N6" t="n">
-        <v>238650.612428865</v>
+        <v>235174.4231308041</v>
       </c>
       <c r="O6" t="n">
-        <v>238650.6124288648</v>
+        <v>235174.4231308042</v>
       </c>
       <c r="P6" t="n">
-        <v>238650.6124288651</v>
+        <v>235174.4231308041</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129047</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129047</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26776,7 +26776,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593299</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>187.52558716632</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022934</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>20.57891343141375</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>239.6556507682058</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803943</v>
+        <v>236.0660360556142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>23.90593186000152</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="E4" t="n">
-        <v>643.875868235973</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>239.8079481415044</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.90593186000152</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>278.4010767246574</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>289.286498676129</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.90593186000152</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>289.2864986761293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936717</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043121</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470025</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244295</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924582</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590851</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>298.916117797533</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550077</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>4.75513090282037</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445822</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620018</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114196</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784861</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647911</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181395</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043121</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655544</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470025</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244295</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151093</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924582</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590851</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405033</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>298.916117797533</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829655</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550077</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>4.75513090282037</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445822</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620018</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114196</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784861</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647911</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181395</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33754,10 +33754,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33897,7 +33897,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
         <v>691.3565293623194</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837908</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
@@ -34371,31 +34371,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
         <v>19.17787942451121</v>
@@ -34444,43 +34444,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.956561913878</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,19 +34523,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883116</v>
@@ -34550,13 +34550,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765017</v>
+        <v>89.75123316395907</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062402</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>177.8598224851397</v>
+        <v>147.4099394863213</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.09259053886808</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788338</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197547</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504116</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405813</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915996</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065978</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781472</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606291</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755147</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>91.301859448557</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764999</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880152</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>187.52558716632</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>99.08507489005515</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>164.382023673283</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>116.8989542469473</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.09259053886808</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788338</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973021</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197547</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504116</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405813</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915996</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065978</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>170.984319737154</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781472</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606291</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755147</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>138.091009184823</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>91.301859448557</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764999</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880152</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M10" t="n">
-        <v>187.52558716632</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N10" t="n">
-        <v>99.08507489005521</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O10" t="n">
-        <v>164.382023673283</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8989542469473</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597725</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37402,10 +37402,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004575</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340038</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701982</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>530742.8579345818</v>
+        <v>574703.7078591931</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12462791.62801786</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6927973.460166839</v>
+        <v>7622616.185043049</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9341851.060518837</v>
+        <v>8997248.300753195</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.8079481415046</v>
+        <v>165.1725371760941</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>211.2228407230372</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>239.8079481415046</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="X2" t="n">
-        <v>239.8079481415046</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>150.4760324962417</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>138.2613113589517</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415046</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.948228754746022</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="U4" t="n">
-        <v>239.8079481415046</v>
+        <v>165.1725371760941</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>239.8079481415046</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>79.51149230610422</v>
+        <v>6.396723986041094</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>153.0783995369557</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V6" t="n">
-        <v>83.39636417672372</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.5289697286603</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>118.9836570830976</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>187.5255871663196</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>48.77881175550659</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714241</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>162.3056641808066</v>
+        <v>89.48249960344525</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>11.16209871159174</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>32.35016756540381</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.063910705648666</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>172.5821082655291</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>18.26879610204007</v>
+        <v>77.83107808278515</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>184.1481152416521</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>240.2451530332455</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>3.636856283808396</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>114.1627038799791</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>295.4261305984813</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>174.9123239800305</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>90.41948680756566</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.20389322926706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>278.4747886798693</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>109.3296738389808</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>37.38100496017476</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4281572700698</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>281.8418017252665</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>58.92805047992118</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>114.4746605491558</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>70.82764119510665</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>282.3935320802019</v>
+        <v>210.7526277906763</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>36.15999212057531</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>260.6968861527344</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2797,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>350.9274692014538</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>358.0536686794121</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>123.4103545945733</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>93.91244618182746</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>238.0876352961039</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>110.968278884698</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>21.23410122893618</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>85.97636447956948</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>77.92383158564736</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>111.981193508336</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>80.7160676450474</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>197.2040098788587</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>33.82128629323071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>59.90320919298873</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>38.81758817917237</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>195.7072339319593</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>177.6065387483031</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F43" t="n">
-        <v>25.01141625626332</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>216.102948955015</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>373.5948378187484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.642306573883079</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4191,10 +4191,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>270.0697021486472</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="C2" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="D2" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="E2" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F2" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470371</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>122.982040419296</v>
+        <v>80.8121315905891</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605492</v>
+        <v>191.8743094079178</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859565</v>
+        <v>347.1218190644746</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779385</v>
+        <v>509.4952041123819</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948976</v>
+        <v>649.484525998557</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444236</v>
+        <v>734.4611726020252</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660185</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660185</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660185</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660185</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="U2" t="n">
-        <v>745.8753877952738</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="V2" t="n">
-        <v>745.8753877952738</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="W2" t="n">
-        <v>503.6451371472893</v>
+        <v>560.6825636487937</v>
       </c>
       <c r="X2" t="n">
-        <v>261.4148864993049</v>
+        <v>371.2627786323093</v>
       </c>
       <c r="Y2" t="n">
-        <v>261.4148864993049</v>
+        <v>181.8429936158249</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171.1806282717666</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="C3" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="D3" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="E3" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467723</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>224.022053530371</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849756</v>
+        <v>338.7690911140239</v>
       </c>
       <c r="N3" t="n">
-        <v>602.17613153764</v>
+        <v>512.5000587546591</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064004</v>
+        <v>649.2101578476336</v>
       </c>
       <c r="P3" t="n">
-        <v>870.378071733699</v>
+        <v>739.5989987017048</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660185</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660185</v>
+        <v>722.9192922843262</v>
       </c>
       <c r="S3" t="n">
-        <v>809.7650034286532</v>
+        <v>722.9192922843262</v>
       </c>
       <c r="T3" t="n">
-        <v>809.7650034286532</v>
+        <v>533.4995072678418</v>
       </c>
       <c r="U3" t="n">
-        <v>581.6262159398191</v>
+        <v>344.0797222513573</v>
       </c>
       <c r="V3" t="n">
-        <v>581.6262159398191</v>
+        <v>204.42183198979</v>
       </c>
       <c r="W3" t="n">
-        <v>339.3959652918346</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="X3" t="n">
-        <v>339.3959652918346</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.3959652918346</v>
+        <v>15.00204697330556</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.15254368439716</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="C4" t="n">
-        <v>21.15254368439716</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="D4" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="E4" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="F4" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="G4" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132037</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469301</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>100.3335179349377</v>
       </c>
       <c r="M4" t="n">
-        <v>510.3351610669861</v>
+        <v>285.9838492295941</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584443</v>
+        <v>471.6341805242504</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470431</v>
+        <v>634.3723839608004</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456587</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660185</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660185</v>
+        <v>750.1023486652781</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660185</v>
+        <v>560.6825636487937</v>
       </c>
       <c r="T4" t="n">
-        <v>733.6025958783835</v>
+        <v>371.2627786323093</v>
       </c>
       <c r="U4" t="n">
-        <v>491.372345230399</v>
+        <v>204.42183198979</v>
       </c>
       <c r="V4" t="n">
-        <v>491.372345230399</v>
+        <v>204.42183198979</v>
       </c>
       <c r="W4" t="n">
-        <v>249.1420945824145</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="X4" t="n">
-        <v>21.15254368439716</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.15254368439716</v>
+        <v>15.00204697330556</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>820.2300801016544</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="C5" t="n">
-        <v>820.2300801016544</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="D5" t="n">
-        <v>820.2300801016544</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8524235344764</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985575</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020256</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>589.7227393823965</v>
       </c>
       <c r="V5" t="n">
-        <v>820.2300801016544</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="W5" t="n">
-        <v>820.2300801016544</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="X5" t="n">
-        <v>820.2300801016544</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="Y5" t="n">
-        <v>820.2300801016544</v>
+        <v>393.8416170062745</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326.869123378691</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C6" t="n">
-        <v>326.869123378691</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J6" t="n">
-        <v>117.4455628004799</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699341</v>
+        <v>67.13418877024202</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302309</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>338.7690911140238</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>512.5000587546593</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>649.210157847634</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>739.5989987017052</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>722.9192922843266</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>568.2946462874016</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428381</v>
+        <v>378.8748612709171</v>
       </c>
       <c r="V6" t="n">
-        <v>742.4809223491777</v>
+        <v>378.8748612709171</v>
       </c>
       <c r="W6" t="n">
-        <v>742.4809223491777</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="X6" t="n">
-        <v>534.6294221436449</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="Y6" t="n">
-        <v>326.869123378691</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.666471045117</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C7" t="n">
-        <v>189.666471045117</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D7" t="n">
-        <v>189.666471045117</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E7" t="n">
-        <v>189.666471045117</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F7" t="n">
-        <v>189.666471045117</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>285.9838492295944</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>471.6341805242508</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>634.3723839608009</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652786</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="W7" t="n">
-        <v>788.4778634388466</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="X7" t="n">
-        <v>560.4883125408293</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="Y7" t="n">
-        <v>339.6957333972991</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>470.9555216282756</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C8" t="n">
-        <v>470.9555216282756</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D8" t="n">
-        <v>350.7700094231265</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E8" t="n">
-        <v>350.7700094231265</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F8" t="n">
-        <v>350.7700094231265</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058916</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>191.874309407918</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644748</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123819</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985573</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020254</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567162</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.789775223591</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="W8" t="n">
-        <v>1231.021119953477</v>
+        <v>560.682563648794</v>
       </c>
       <c r="X8" t="n">
-        <v>857.5553616923974</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="Y8" t="n">
-        <v>857.5553616923974</v>
+        <v>204.42183198979</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.2981106200058</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8450813388788</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9106716776275</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6732166721721</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="F9" t="n">
-        <v>302.138658699057</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2626649141729</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300612</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J9" t="n">
-        <v>212.6436730778755</v>
+        <v>15.00204697330508</v>
       </c>
       <c r="K9" t="n">
-        <v>369.7349398227043</v>
+        <v>67.13418877024154</v>
       </c>
       <c r="L9" t="n">
-        <v>906.4287469816059</v>
+        <v>183.5548280772642</v>
       </c>
       <c r="M9" t="n">
-        <v>1226.335642450115</v>
+        <v>338.7690911140236</v>
       </c>
       <c r="N9" t="n">
-        <v>1569.118166444747</v>
+        <v>512.5000587546592</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.477412699312</v>
+        <v>649.2101578476337</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260213</v>
+        <v>739.598998701705</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>722.9192922843265</v>
       </c>
       <c r="S9" t="n">
-        <v>2168.459826904653</v>
+        <v>722.9192922843265</v>
       </c>
       <c r="T9" t="n">
-        <v>2004.514711570505</v>
+        <v>632.5329290485232</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.514711570505</v>
+        <v>632.5329290485232</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.362603338762</v>
+        <v>443.1131440320387</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.12524661056</v>
+        <v>253.6933590155543</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.273746405028</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.513447640074</v>
+        <v>64.27357399906981</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.5339912194294</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="C10" t="n">
-        <v>201.5339912194294</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="D10" t="n">
-        <v>201.5339912194294</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>373.539956383097</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>559.1902876777534</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>721.9284911143035</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>750.1023486652784</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>615.9383389575104</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693647</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="T10" t="n">
-        <v>1262.751521386271</v>
+        <v>583.2614020227591</v>
       </c>
       <c r="U10" t="n">
-        <v>973.6252003602942</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="V10" t="n">
-        <v>718.9407121544074</v>
+        <v>393.8416170062745</v>
       </c>
       <c r="W10" t="n">
-        <v>429.5235421174468</v>
+        <v>204.42183198979</v>
       </c>
       <c r="X10" t="n">
-        <v>201.5339912194294</v>
+        <v>15.00204697330557</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.5339912194294</v>
+        <v>15.00204697330557</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1952.040104645722</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C11" t="n">
-        <v>1583.077587705311</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>995.4904276233237</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176916</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W11" t="n">
-        <v>2325.505862906802</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X11" t="n">
-        <v>1952.040104645722</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y11" t="n">
-        <v>1952.040104645722</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5126,7 +5126,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>231.8553933260938</v>
+        <v>758.9852304414014</v>
       </c>
       <c r="C13" t="n">
-        <v>231.8553933260938</v>
+        <v>590.0490475134945</v>
       </c>
       <c r="D13" t="n">
-        <v>231.8553933260938</v>
+        <v>439.9324081011588</v>
       </c>
       <c r="E13" t="n">
-        <v>231.8553933260938</v>
+        <v>292.0193145187657</v>
       </c>
       <c r="F13" t="n">
-        <v>84.96544582818348</v>
+        <v>145.1293670208553</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>940.6336952716412</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1179.52858457759</v>
+        <v>1506.36381994936</v>
       </c>
       <c r="C14" t="n">
-        <v>810.5660676371781</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D14" t="n">
-        <v>452.3003690304276</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>66.51211643218342</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218342</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923659</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653544</v>
+        <v>2656.568750250373</v>
       </c>
       <c r="X14" t="n">
-        <v>1808.800296392465</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y14" t="n">
-        <v>1566.128424641711</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>644.3338566427974</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C16" t="n">
-        <v>644.3338566427974</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="D16" t="n">
-        <v>644.3338566427974</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="E16" t="n">
-        <v>496.4207630604043</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>349.5308155624939</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>181.8279789372129</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5469,19 +5469,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783662</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V16" t="n">
-        <v>1161.740577577775</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W16" t="n">
-        <v>872.3234075408147</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X16" t="n">
-        <v>644.3338566427974</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y16" t="n">
-        <v>644.3338566427974</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1619.798686923957</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1250.836169983545</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
         <v>892.5704713767946</v>
@@ -5506,61 +5506,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>2678.274518176917</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W17" t="n">
-        <v>2379.864285249158</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X17" t="n">
-        <v>2006.398526988078</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="Y17" t="n">
-        <v>2006.398526988078</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.3679798527295</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C19" t="n">
-        <v>511.4317969248226</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124869</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>304.7348788872308</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>157.8449313893205</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>157.8449313893205</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>872.3234075408147</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.0164446829692</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1127.748203495404</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C20" t="n">
-        <v>758.7856865549923</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>477.498021221791</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5761,7 +5761,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5785,19 +5785,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V20" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W20" t="n">
-        <v>2277.953133796417</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X20" t="n">
-        <v>1904.487375535337</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y20" t="n">
-        <v>1514.348043559526</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.3679798527295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C22" t="n">
-        <v>511.4317969248226</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D22" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218342</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1889.535957219629</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="T22" t="n">
-        <v>1707.670146805594</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="U22" t="n">
-        <v>1418.567279931238</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V22" t="n">
-        <v>1418.567279931238</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W22" t="n">
-        <v>1129.150109894277</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X22" t="n">
-        <v>901.1605589962596</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y22" t="n">
-        <v>680.3679798527295</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2005.586939522201</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E23" t="n">
         <v>892.5704713767946</v>
@@ -5992,13 +5992,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
         <v>2120.555556060171</v>
@@ -6022,19 +6022,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3155.791869823214</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V23" t="n">
-        <v>3155.791869823214</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W23" t="n">
-        <v>3155.791869823214</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X23" t="n">
-        <v>2782.326111562134</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y23" t="n">
-        <v>2392.186779586323</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>182.143086683856</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218342</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1101.990851592604</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>812.5736815556431</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>584.5841306576258</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>363.7915515140957</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1921.870414581993</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="C26" t="n">
-        <v>1921.870414581993</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="D26" t="n">
-        <v>1563.604715975243</v>
+        <v>1122.251160158767</v>
       </c>
       <c r="E26" t="n">
-        <v>1177.816463376998</v>
+        <v>736.4629075605226</v>
       </c>
       <c r="F26" t="n">
-        <v>766.8305585873909</v>
+        <v>736.4629075605226</v>
       </c>
       <c r="G26" t="n">
-        <v>351.7581084323874</v>
+        <v>321.390457405519</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>3072.075344883006</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>3072.075344883006</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X26" t="n">
-        <v>2698.609586621927</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y26" t="n">
-        <v>2308.470254646115</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>235.4482993600903</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1890.769303522255</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1699.083419349081</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1699.083419349081</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1409.980552474725</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V28" t="n">
-        <v>1155.296064268838</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W28" t="n">
-        <v>865.8788942318774</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X28" t="n">
-        <v>637.8893433338601</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y28" t="n">
-        <v>417.09676419033</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1590.807527238422</v>
+        <v>1480.516858765519</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.845010298011</v>
+        <v>1111.554341825107</v>
       </c>
       <c r="D29" t="n">
-        <v>867.3728191854311</v>
+        <v>1111.554341825107</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>725.7660892268627</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3072.075344883006</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V29" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W29" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X29" t="n">
-        <v>2367.546699278356</v>
+        <v>2257.256030805452</v>
       </c>
       <c r="Y29" t="n">
-        <v>1977.407367302544</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.5121164321834</v>
+        <v>822.6111008985771</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>653.6749179706702</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046018</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676413</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696239</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="Y31" t="n">
-        <v>231.8553933260938</v>
+        <v>1004.259565728817</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1685.375546116518</v>
+        <v>1887.813801820606</v>
       </c>
       <c r="C32" t="n">
-        <v>1316.413029176106</v>
+        <v>1518.851284880194</v>
       </c>
       <c r="D32" t="n">
-        <v>958.147330569356</v>
+        <v>1518.851284880194</v>
       </c>
       <c r="E32" t="n">
-        <v>572.3590779711117</v>
+        <v>1133.06303228195</v>
       </c>
       <c r="F32" t="n">
-        <v>161.3731731815041</v>
+        <v>722.0771274923425</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218343</v>
+        <v>307.0046773373389</v>
       </c>
       <c r="H32" t="n">
         <v>66.51211643218343</v>
@@ -6700,22 +6700,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296687</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X32" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y32" t="n">
-        <v>2071.97538618064</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218343</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>644.3338566427974</v>
+        <v>945.359430916462</v>
       </c>
       <c r="C34" t="n">
-        <v>644.3338566427974</v>
+        <v>776.4232479885551</v>
       </c>
       <c r="D34" t="n">
-        <v>494.2172172304616</v>
+        <v>626.3066085762193</v>
       </c>
       <c r="E34" t="n">
-        <v>346.3041236480685</v>
+        <v>478.3935149938262</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5035674959158</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218343</v>
@@ -6894,16 +6894,16 @@
         <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.740577577775</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W34" t="n">
-        <v>872.3234075408147</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X34" t="n">
-        <v>644.3338566427974</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="Y34" t="n">
-        <v>644.3338566427974</v>
+        <v>1127.007895746702</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1221.525483338121</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C35" t="n">
-        <v>852.5629663977095</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D35" t="n">
-        <v>494.2972677909589</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E35" t="n">
-        <v>108.5090151927147</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="F35" t="n">
-        <v>108.5090151927147</v>
+        <v>560.2955075827904</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>145.2230574277868</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943747</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>382.1280466398575</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C37" t="n">
-        <v>382.1280466398575</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D37" t="n">
-        <v>382.1280466398575</v>
+        <v>494.2172172304616</v>
       </c>
       <c r="E37" t="n">
-        <v>234.2149530574644</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7125,22 +7125,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1845.763166628849</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1556.660299754492</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1301.975811548605</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>1012.558641511645</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>784.5690906136274</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.7765114700973</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2175.400891308158</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>1224.316987215735</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>813.3310824261275</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>398.258632271124</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>100.6750318798912</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W38" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X38" t="n">
-        <v>2952.140063348092</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y38" t="n">
-        <v>2562.00073137228</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>463.6594280995014</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C40" t="n">
-        <v>294.7232451715945</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D40" t="n">
-        <v>234.2149530574645</v>
+        <v>273.4246380869315</v>
       </c>
       <c r="E40" t="n">
-        <v>234.2149530574645</v>
+        <v>273.4246380869315</v>
       </c>
       <c r="F40" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7362,22 +7362,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.507193008249</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>1094.090022971289</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>866.1004720732712</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y40" t="n">
-        <v>645.3078929297411</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1501.213961756484</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C41" t="n">
-        <v>1132.251444816073</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D41" t="n">
-        <v>1132.251444816073</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X41" t="n">
-        <v>2277.953133796418</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y41" t="n">
-        <v>1887.813801820606</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>241.8928126690276</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C43" t="n">
-        <v>241.8928126690276</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D43" t="n">
-        <v>91.77617325669183</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E43" t="n">
-        <v>91.77617325669183</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7599,22 +7599,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V43" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W43" t="n">
-        <v>872.3234075408147</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X43" t="n">
-        <v>644.3338566427974</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y43" t="n">
-        <v>423.5412774992673</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1250.80968089488</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C44" t="n">
-        <v>881.8471639544687</v>
+        <v>1439.837779452053</v>
       </c>
       <c r="D44" t="n">
-        <v>523.5814653477182</v>
+        <v>1081.572080845303</v>
       </c>
       <c r="E44" t="n">
-        <v>523.5814653477182</v>
+        <v>695.7838282470586</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>284.7979234574511</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052369</v>
@@ -7678,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269323</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.778044008243</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y44" t="n">
-        <v>1637.409520959002</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
@@ -7730,22 +7730,22 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
         <v>66.51211643218343</v>
@@ -7809,16 +7809,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1241.044369546818</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>986.3598813409312</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W46" t="n">
-        <v>696.9427113039706</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.78462588923499</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>74.034189265289</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457081</v>
       </c>
       <c r="N4" t="n">
-        <v>111.3252676074456</v>
+        <v>163.8604018711113</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>99.37288961069042</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,16 +8376,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>82.97369176944299</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3334423962145</v>
+        <v>15.37922103265844</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>281.9622945443575</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402857</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457081</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711114</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777569</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.925893521976</v>
+        <v>217.5613044873865</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9169039459368</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>39.93194549926341</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>109.4330205759084</v>
+        <v>161.7153815510935</v>
       </c>
       <c r="X2" t="n">
-        <v>129.9231525369644</v>
+        <v>182.2055135121495</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897341</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>22.232466492074</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0669836643703</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664346</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>7.884010625681725</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.3381812437714</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>94.53927579047357</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941498</v>
+        <v>64.16939599460008</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22710,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>146.6672442634663</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176904</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>19.25466862917671</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>36.19408632378057</v>
       </c>
       <c r="U4" t="n">
-        <v>46.45270651659237</v>
+        <v>121.0925443173562</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>46.71505019508638</v>
+        <v>98.99741117027148</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>219.3504585753918</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>225.5722460637384</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>248.2407661640307</v>
+        <v>321.3555344840938</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510934</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22865,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>42.33119825504554</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>38.33818124377129</v>
       </c>
       <c r="V6" t="n">
-        <v>149.4042229727015</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459997</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.30301045327704</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>41.60771861940194</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>98.99741117027136</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>38.18406822271751</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>31.05906618577515</v>
       </c>
     </row>
     <row r="8">
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>195.208254497161</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>235.6993845375853</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23035,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.3652991436814</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>161.7153815510934</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>204.5585635023747</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>198.712351489734</v>
       </c>
     </row>
     <row r="9">
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>30.45755412995715</v>
+        <v>105.927098188556</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310566</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.16939599459999</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>18.24739803715786</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>135.2718639349774</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553087</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845829</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>174.4300882300924</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>98.73949432713067</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>98.99741117027139</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>38.18406822271754</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>347.6191309150343</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>234.2939374761824</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>147.7570121569881</v>
+        <v>88.19473017624307</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23466,13 +23466,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>181.1247765293554</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.992785622808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>142.7971063627608</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>30.59231103434163</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>53.81483811893173</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>194.8187766984386</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>54.33552810675512</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.3807601228277</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>76.20825294081368</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>276.9082648170728</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>51.55114770987257</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>2.120792006099379</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>100.8920399382141</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>192.0671214789808</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>52.77216054947203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>147.7570121569881</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>12.21423230711855</v>
+        <v>83.85513659664414</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>52.77216054947202</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>25.82611218385665</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3.755572419229168</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>48.82237706229938</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.142136056966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>25.20511842363909</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>317.009279471626</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>56.52012909121652</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>34.45276913823324</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>144.7917070300921</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>296.7574771839111</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>216.6839328016731</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>34.45276913823321</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>138.8328816311218</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>168.0688818921489</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.755643479695244</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>88.71226382522363</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>106.6034598437589</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>186.2231361403024</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>233.3151869051503</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F43" t="n">
-        <v>120.4096317666679</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25839,7 +25839,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>194.8187766984385</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>12.64310083730521</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>144.7916560726861</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.14213605696568</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>515979.6641158587</v>
+        <v>471997.7018764834</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>535324.6760033172</v>
+        <v>471997.7018764834</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>731289.103388987</v>
+        <v>471997.7018764834</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879911.6497810575</v>
+        <v>879911.6497810576</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879911.6497810574</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879911.6497810573</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879911.6497810574</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879911.6497810577</v>
+        <v>879911.6497810575</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879911.6497810575</v>
+        <v>879911.6497810576</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879911.6497810576</v>
+        <v>879911.6497810574</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186902.5922223889</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>193768.2521372568</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>265569.8802231799</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="E2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="F2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="G2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="H2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223747</v>
       </c>
       <c r="I2" t="n">
         <v>323947.2440223746</v>
       </c>
       <c r="J2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="K2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
       <c r="L2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223747</v>
       </c>
       <c r="M2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="N2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="O2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="P2" t="n">
         <v>323947.2440223743</v>
-      </c>
-      <c r="N2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="O2" t="n">
-        <v>323947.2440223746</v>
-      </c>
-      <c r="P2" t="n">
-        <v>323947.2440223747</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800889</v>
+        <v>591356.9025208449</v>
       </c>
       <c r="C3" t="n">
-        <v>26462.50553395217</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599824</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.643633668</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353579</v>
+        <v>49064.94472854447</v>
       </c>
       <c r="K3" t="n">
-        <v>6152.62187094487</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932026</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608605</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14501.70850239081</v>
+        <v>12034.19304942662</v>
       </c>
       <c r="C4" t="n">
-        <v>15438.57384129046</v>
+        <v>12034.19304942662</v>
       </c>
       <c r="D4" t="n">
-        <v>18888.92742949787</v>
+        <v>12034.19304942662</v>
       </c>
       <c r="E4" t="n">
         <v>10990.29103211609</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437329</v>
+        <v>56985.80041161353</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161354</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26496,13 +26496,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-551680.3287030507</v>
+        <v>-490107.7567055602</v>
       </c>
       <c r="C6" t="n">
-        <v>78491.65437099646</v>
+        <v>101249.1458152847</v>
       </c>
       <c r="D6" t="n">
-        <v>-136790.9921517702</v>
+        <v>101249.1458152847</v>
       </c>
       <c r="E6" t="n">
-        <v>-40856.32263610595</v>
+        <v>-388831.650134609</v>
       </c>
       <c r="F6" t="n">
-        <v>235174.4231308039</v>
+        <v>238302.993499059</v>
       </c>
       <c r="G6" t="n">
-        <v>235174.4231308039</v>
+        <v>238302.9934990591</v>
       </c>
       <c r="H6" t="n">
-        <v>235174.4231308041</v>
+        <v>238302.9934990592</v>
       </c>
       <c r="I6" t="n">
-        <v>235174.4231308041</v>
+        <v>238302.9934990591</v>
       </c>
       <c r="J6" t="n">
-        <v>172430.1123472682</v>
+        <v>189238.0487705147</v>
       </c>
       <c r="K6" t="n">
-        <v>229021.8012598591</v>
+        <v>238302.9934990591</v>
       </c>
       <c r="L6" t="n">
-        <v>164713.6162214837</v>
+        <v>238302.9934990592</v>
       </c>
       <c r="M6" t="n">
-        <v>163083.0705147179</v>
+        <v>77846.55163118156</v>
       </c>
       <c r="N6" t="n">
-        <v>235174.4231308041</v>
+        <v>238302.9934990591</v>
       </c>
       <c r="O6" t="n">
-        <v>235174.4231308042</v>
+        <v>238302.993499059</v>
       </c>
       <c r="P6" t="n">
-        <v>235174.4231308041</v>
+        <v>238302.9934990588</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129043</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415046</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380646</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>20.57891343141375</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682058</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.306759680394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415046</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="C4" t="n">
-        <v>23.90593186000152</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>278.4010767246571</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415044</v>
+        <v>187.5255871663194</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000152</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246574</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.286498676129</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415046</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="K4" t="n">
-        <v>23.90593186000152</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246571</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198248</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055156</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651554</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>202.49464189374</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779019</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>376.5024309712528</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074821</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359667</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822516</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>343.0858495426698</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457574</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411496</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810513</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916533</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840365</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>12.32862615985301</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182838</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847382</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070427</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>277.170135351282</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842452</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900651</v>
+        <v>306.8275379829648</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947075</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671572</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607456</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080798</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784624</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308313</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888313</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207009</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784128</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490373</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>124.338107579024</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889952</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676925</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>163.770216344109</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714136</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>129.4361645720919</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104776</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937814</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>18.6507161368536</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522791</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043116</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.5015668622678</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244293</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924575</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590849</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292672</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628871</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550072</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820367</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390159</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445815</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620012</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.9254218111419</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784856</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647908</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181393</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.0539478630406136</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.4487373670537</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292135</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012656</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802094</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393758</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605649</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874002</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130796</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.2907269326837</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714078</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>181.3104407622268</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067318</v>
+        <v>175.4858258996315</v>
       </c>
       <c r="O3" t="n">
-        <v>161.123548150263</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>109.7875025528269</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.75123316395907</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531411</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>186.6999948493114</v>
+        <v>86.19340501174966</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295331</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="N4" t="n">
-        <v>147.4099394863213</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854533</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369854</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353372</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>99.08507489005443</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538867967</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788321</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915973</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065964</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>170.984319737154</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781461</v>
       </c>
       <c r="L9" t="n">
-        <v>542.1149567261632</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755145</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855685</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.6094444076499</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>187.5255871663196</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>28.45844197068178</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
